--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="188">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,376 +40,409 @@
     <t>name</t>
   </si>
   <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>disappointment</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>inches</t>
+  </si>
+  <si>
     <t>crap</t>
   </si>
   <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointment</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>loose</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>loose</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>hole</t>
+    <t>unfortunately</t>
   </si>
   <si>
     <t>worst</t>
   </si>
   <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>inches</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>glue</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>instead</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>noise</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>glue</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>rip</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
     <t>paint</t>
   </si>
   <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
     <t>tried</t>
   </si>
   <si>
-    <t>fell</t>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>might</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>short</t>
   </si>
   <si>
     <t>less</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>charge</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>seem</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>looked</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>fl</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>un</t>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>work</t>
   </si>
   <si>
     <t>return</t>
   </si>
   <si>
-    <t>though</t>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>back</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>seem</t>
-  </si>
-  <si>
-    <t>expensive</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>away</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>looked</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>picture</t>
+    <t>seems</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>parts</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>within</t>
-  </si>
-  <si>
-    <t>actually</t>
+    <t>price</t>
   </si>
   <si>
     <t>nothing</t>
   </si>
   <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>seems</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>batteries</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>expected</t>
   </si>
   <si>
     <t>look</t>
   </si>
   <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>something</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>ordered</t>
   </si>
   <si>
     <t>put</t>
   </si>
   <si>
-    <t>pieces</t>
+    <t>found</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>bigger</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>ordered</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>think</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>way</t>
   </si>
   <si>
+    <t>never</t>
+  </si>
+  <si>
     <t>enough</t>
   </si>
   <si>
-    <t>looks</t>
+    <t>first</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>know</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>something</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>two</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>34</t>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>bought</t>
+    <t>got</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>time</t>
@@ -418,9 +451,6 @@
     <t>quality</t>
   </si>
   <si>
-    <t>got</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
@@ -433,15 +463,15 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -466,94 +496,85 @@
     <t>loves</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>grandchildren</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>fun</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>elf</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>grand</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>games</t>
   </si>
   <si>
     <t>book</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
-    <t>family</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cute</t>
   </si>
   <si>
     <t>playing</t>
   </si>
   <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>grandson</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>gift</t>
   </si>
   <si>
     <t>play</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>son</t>
+    <t>good</t>
   </si>
   <si>
     <t>year</t>
   </si>
   <si>
     <t>kids</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -914,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q132"/>
+  <dimension ref="A1:Q142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,10 +943,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="J1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -983,13 +1004,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9047619047619048</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1004,16 +1025,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1025,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1033,13 +1054,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8913043478260869</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1051,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K4">
-        <v>0.8461538461538461</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1075,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1083,13 +1104,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8620689655172413</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1101,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="K5">
-        <v>0.8148148148148148</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1125,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1133,13 +1154,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8309859154929577</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C6">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1151,19 +1172,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="K6">
-        <v>0.7204301075268817</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="L6">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M6">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1175,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1183,13 +1204,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8095238095238095</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1201,10 +1222,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="K7">
         <v>0.7083333333333334</v>
@@ -1233,13 +1254,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8009708737864077</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C8">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1251,19 +1272,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K8">
-        <v>0.6415094339622641</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1275,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1283,13 +1304,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7954545454545454</v>
+        <v>0.8</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1301,19 +1322,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="K9">
-        <v>0.578125</v>
+        <v>0.59375</v>
       </c>
       <c r="L9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1325,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1333,13 +1354,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7903225806451613</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C10">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1351,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="K10">
-        <v>0.463768115942029</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1375,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1383,13 +1404,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7894736842105263</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1401,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="K11">
-        <v>0.4306808859721083</v>
+        <v>0.4360655737704918</v>
       </c>
       <c r="L11">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="M11">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1422,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1433,13 +1454,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7826086956521739</v>
+        <v>0.78125</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1451,19 +1472,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="K12">
-        <v>0.4195402298850575</v>
+        <v>0.4339080459770115</v>
       </c>
       <c r="L12">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="M12">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1475,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1483,13 +1504,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.78125</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1501,19 +1522,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="K13">
-        <v>0.3921161825726141</v>
+        <v>0.3983402489626556</v>
       </c>
       <c r="L13">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M13">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1525,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1533,13 +1554,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7777777777777778</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1551,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K14">
-        <v>0.3425076452599388</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="L14">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1575,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>215</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1604,28 +1625,28 @@
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="K15">
-        <v>0.3333333333333333</v>
+        <v>0.35</v>
       </c>
       <c r="L15">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="N15">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>110</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1633,13 +1654,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.72</v>
+        <v>0.7572815533980582</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1651,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="K16">
-        <v>0.3207547169811321</v>
+        <v>0.308868501529052</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1675,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>36</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1683,13 +1704,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.72</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1701,31 +1722,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="K17">
-        <v>0.3166666666666667</v>
+        <v>0.296969696969697</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>82</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1733,13 +1754,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6818181818181818</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1751,19 +1772,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="K18">
-        <v>0.3121693121693122</v>
+        <v>0.2751322751322751</v>
       </c>
       <c r="L18">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M18">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1775,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1783,13 +1804,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6818181818181818</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1801,31 +1822,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="K19">
-        <v>0.2727272727272727</v>
+        <v>0.2056451612903226</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>40</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1833,13 +1854,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6756756756756757</v>
+        <v>0.72</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1851,19 +1872,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="K20">
-        <v>0.2377622377622378</v>
+        <v>0.1875</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1875,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1883,13 +1904,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6727272727272727</v>
+        <v>0.6891891891891891</v>
       </c>
       <c r="C21">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="D21">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1901,19 +1922,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="K21">
-        <v>0.234375</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1925,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>49</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1933,13 +1954,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6666666666666666</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1951,31 +1972,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K22">
-        <v>0.2096774193548387</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L22">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="M22">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="N22">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>196</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1983,13 +2004,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6666666666666666</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2001,19 +2022,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="K23">
-        <v>0.203125</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2025,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2033,13 +2054,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6428571428571429</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2051,31 +2072,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K24">
-        <v>0.1984126984126984</v>
+        <v>0.1493848857644991</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>101</v>
+        <v>968</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2083,13 +2104,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5925925925925926</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2101,19 +2122,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="K25">
-        <v>0.1559139784946237</v>
+        <v>0.1468531468531468</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2125,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2133,13 +2154,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5925925925925926</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="C26">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2151,19 +2172,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="K26">
-        <v>0.1538461538461539</v>
+        <v>0.128</v>
       </c>
       <c r="L26">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2175,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2183,13 +2204,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5862068965517241</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C27">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2201,31 +2222,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="K27">
-        <v>0.1536435469710272</v>
+        <v>0.1210191082802548</v>
       </c>
       <c r="L27">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="N27">
-        <v>0.99</v>
+        <v>0.83</v>
       </c>
       <c r="O27">
-        <v>0.01000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>964</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2233,13 +2254,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5789473684210527</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2251,19 +2272,19 @@
         <v>0</v>
       </c>
       <c r="H28">
+        <v>44</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K28">
+        <v>0.1038961038961039</v>
+      </c>
+      <c r="L28">
         <v>16</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K28">
-        <v>0.1125827814569536</v>
-      </c>
-      <c r="L28">
-        <v>17</v>
-      </c>
       <c r="M28">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2275,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2283,13 +2304,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5740740740740741</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C29">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2301,31 +2322,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="K29">
-        <v>0.09803921568627451</v>
+        <v>0.09776536312849161</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N29">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O29">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>138</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2333,13 +2354,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5714285714285714</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C30">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="D30">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2351,31 +2372,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="K30">
-        <v>0.09564085881587508</v>
+        <v>0.09582790091264667</v>
       </c>
       <c r="L30">
         <v>147</v>
       </c>
       <c r="M30">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N30">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O30">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2383,13 +2404,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5714285714285714</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2401,19 +2422,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="K31">
-        <v>0.0947075208913649</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2425,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>325</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2433,13 +2454,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5666666666666667</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2451,31 +2472,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="K32">
-        <v>0.07120743034055728</v>
+        <v>0.08579088471849866</v>
       </c>
       <c r="L32">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N32">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O32">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>300</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2483,13 +2504,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5542168674698795</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C33">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2501,31 +2522,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="K33">
-        <v>0.07058823529411765</v>
+        <v>0.06640625</v>
       </c>
       <c r="L33">
+        <v>17</v>
+      </c>
+      <c r="M33">
         <v>18</v>
       </c>
-      <c r="M33">
-        <v>20</v>
-      </c>
       <c r="N33">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O33">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2533,13 +2554,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5483870967741935</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2551,31 +2572,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K34">
-        <v>0.06199460916442048</v>
+        <v>0.05900621118012422</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N34">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="O34">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>348</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2583,13 +2604,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5428571428571428</v>
+        <v>0.5684210526315789</v>
       </c>
       <c r="C35">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2601,25 +2622,25 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="K35">
-        <v>0.06148867313915857</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M35">
         <v>24</v>
       </c>
       <c r="N35">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="O35">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
@@ -2633,13 +2654,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5246376811594203</v>
+        <v>0.5625</v>
       </c>
       <c r="C36">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="D36">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2651,31 +2672,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="K36">
-        <v>0.06</v>
+        <v>0.05507246376811594</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N36">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
       <c r="O36">
-        <v>0.09999999999999998</v>
+        <v>0.24</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>282</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2683,49 +2704,49 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5039370078740157</v>
+        <v>0.561046511627907</v>
       </c>
       <c r="C37">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c r="D37">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="K37">
-        <v>0.05555555555555555</v>
+        <v>0.04172274562584118</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N37">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="O37">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>272</v>
+        <v>712</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2733,13 +2754,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4761904761904762</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="C38">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D38">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2751,31 +2772,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="K38">
-        <v>0.04832214765100671</v>
+        <v>0.03907380607814761</v>
       </c>
       <c r="L38">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M38">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N38">
-        <v>0.84</v>
+        <v>0.66</v>
       </c>
       <c r="O38">
-        <v>0.16</v>
+        <v>0.34</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>709</v>
+        <v>664</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2783,13 +2804,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4754098360655737</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C39">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D39">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2801,31 +2822,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="K39">
-        <v>0.04571428571428571</v>
+        <v>0.03245436105476673</v>
       </c>
       <c r="L39">
         <v>16</v>
       </c>
       <c r="M39">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N39">
-        <v>0.9399999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="O39">
-        <v>0.06000000000000005</v>
+        <v>0.3</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>334</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2833,13 +2854,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4727272727272727</v>
+        <v>0.5039370078740157</v>
       </c>
       <c r="C40">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D40">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2851,31 +2872,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="K40">
-        <v>0.03562945368171021</v>
+        <v>0.03052064631956912</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M40">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N40">
-        <v>0.5600000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="O40">
-        <v>0.4399999999999999</v>
+        <v>0.32</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>406</v>
+        <v>540</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2883,13 +2904,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4666666666666667</v>
+        <v>0.4921875</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D41">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2901,31 +2922,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>32</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K41">
-        <v>0.03420523138832998</v>
-      </c>
-      <c r="L41">
-        <v>17</v>
-      </c>
-      <c r="M41">
-        <v>20</v>
-      </c>
-      <c r="N41">
-        <v>0.85</v>
-      </c>
-      <c r="O41">
-        <v>0.15</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>480</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2933,49 +2930,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4583333333333333</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="C42">
+        <v>21</v>
+      </c>
+      <c r="D42">
+        <v>21</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>22</v>
-      </c>
-      <c r="D42">
-        <v>22</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>26</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="K42">
-        <v>0.03035714285714286</v>
-      </c>
-      <c r="L42">
-        <v>17</v>
-      </c>
-      <c r="M42">
-        <v>22</v>
-      </c>
-      <c r="N42">
-        <v>0.77</v>
-      </c>
-      <c r="O42">
-        <v>0.23</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>543</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2983,13 +2956,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4489795918367347</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C43">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D43">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3001,31 +2974,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>27</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K43">
-        <v>0.03017241379310345</v>
-      </c>
-      <c r="L43">
-        <v>21</v>
-      </c>
-      <c r="M43">
-        <v>30</v>
-      </c>
-      <c r="N43">
-        <v>0.7</v>
-      </c>
-      <c r="O43">
-        <v>0.3</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>675</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3033,13 +2982,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4453125</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C44">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D44">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3051,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3059,25 +3008,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4421052631578947</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C45">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D45">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3085,13 +3034,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4312796208530806</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="C46">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D46">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3103,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>120</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3111,13 +3060,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4306930693069307</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="C47">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="D47">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3129,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3137,7 +3086,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4285714285714285</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="C48">
         <v>18</v>
@@ -3155,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3163,13 +3112,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4157303370786517</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C49">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D49">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3181,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3189,13 +3138,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4137931034482759</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C50">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D50">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3207,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3215,13 +3164,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.4102564102564102</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C51">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D51">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3233,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3241,13 +3190,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.4074074074074074</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C52">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3259,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3267,13 +3216,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.40625</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C53">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D53">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3285,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3293,13 +3242,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.3968253968253968</v>
+        <v>0.40625</v>
       </c>
       <c r="C54">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D54">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3319,13 +3268,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.3947368421052632</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3337,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3345,13 +3294,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.375</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C56">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3363,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3371,13 +3320,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.3720930232558139</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C57">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3389,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3397,13 +3346,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.3709677419354839</v>
+        <v>0.3811881188118812</v>
       </c>
       <c r="C58">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D58">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3415,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>39</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3423,13 +3372,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.3675213675213675</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="C59">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D59">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3441,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3449,25 +3398,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.3529411764705883</v>
+        <v>0.3744075829383886</v>
       </c>
       <c r="C60">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="D60">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E60">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>44</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3475,13 +3424,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.3298969072164948</v>
+        <v>0.373134328358209</v>
       </c>
       <c r="C61">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D61">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3493,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>130</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3501,13 +3450,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.3265306122448979</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="C62">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3519,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3527,13 +3476,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.3260869565217391</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C63">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D63">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3545,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3553,13 +3502,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.3243243243243243</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="C64">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D64">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3571,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3579,13 +3528,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.3214285714285715</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C65">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D65">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3597,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3605,13 +3554,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.3163265306122449</v>
+        <v>0.345360824742268</v>
       </c>
       <c r="C66">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D66">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3623,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>67</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3631,13 +3580,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.315</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C67">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D67">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3649,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>137</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3657,13 +3606,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.3134328358208955</v>
+        <v>0.3247863247863248</v>
       </c>
       <c r="C68">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D68">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3675,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3683,13 +3632,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.3132911392405063</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C69">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="D69">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3701,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>217</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3709,13 +3658,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.3076923076923077</v>
+        <v>0.3195876288659794</v>
       </c>
       <c r="C70">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D70">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3727,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3735,25 +3684,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2928571428571429</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="C71">
+        <v>19</v>
+      </c>
+      <c r="D71">
+        <v>19</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71">
         <v>41</v>
-      </c>
-      <c r="D71">
-        <v>41</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3761,13 +3710,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.2898550724637681</v>
+        <v>0.2989690721649484</v>
       </c>
       <c r="C72">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="D72">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3779,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>196</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3787,13 +3736,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.288659793814433</v>
+        <v>0.2943037974683544</v>
       </c>
       <c r="C73">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="D73">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3805,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>69</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3813,13 +3762,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.2783505154639175</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="C74">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D74">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3831,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3839,25 +3788,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2777777777777778</v>
+        <v>0.28</v>
       </c>
       <c r="C75">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D75">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3865,13 +3814,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2753623188405797</v>
+        <v>0.2753164556962026</v>
       </c>
       <c r="C76">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="D76">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3883,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>50</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3891,25 +3840,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.2678571428571428</v>
+        <v>0.2741935483870968</v>
       </c>
       <c r="C77">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="D77">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="E77">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>492</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3917,13 +3866,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.2678571428571428</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="C78">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D78">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3935,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3943,25 +3892,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.2666666666666667</v>
+        <v>0.2659732540861813</v>
       </c>
       <c r="C79">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="D79">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>44</v>
+        <v>494</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3969,13 +3918,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2637362637362637</v>
+        <v>0.2644927536231884</v>
       </c>
       <c r="C80">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D80">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3987,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>67</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3995,13 +3944,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.2567567567567567</v>
+        <v>0.2642857142857143</v>
       </c>
       <c r="C81">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D81">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -4013,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>55</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4021,25 +3970,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.253968253968254</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="C82">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="D82">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="E82">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>235</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4047,13 +3996,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.2533333333333334</v>
+        <v>0.2577092511013216</v>
       </c>
       <c r="C83">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="D83">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4065,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>56</v>
+        <v>337</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4073,25 +4022,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.247787610619469</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="C84">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="D84">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="E84">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>340</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4099,13 +4048,13 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2432432432432433</v>
+        <v>0.2567567567567567</v>
       </c>
       <c r="C85">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D85">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4117,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4125,25 +4074,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.2421875</v>
+        <v>0.2535211267605634</v>
       </c>
       <c r="C86">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D86">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>97</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4151,13 +4100,13 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.2394366197183098</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C87">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D87">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -4169,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4177,25 +4126,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.239193083573487</v>
+        <v>0.245</v>
       </c>
       <c r="C88">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D88">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="E88">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>264</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4203,13 +4152,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2198952879581152</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="C89">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D89">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4221,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>149</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4229,13 +4178,13 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2171428571428571</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="C90">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D90">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -4247,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>137</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4255,25 +4204,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.205607476635514</v>
+        <v>0.2336448598130841</v>
       </c>
       <c r="C91">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D91">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>170</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4281,25 +4230,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2038216560509554</v>
+        <v>0.2312138728323699</v>
       </c>
       <c r="C92">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D92">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>125</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4307,13 +4256,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.203125</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C93">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D93">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4325,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>153</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4333,13 +4282,13 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1949152542372881</v>
+        <v>0.2292993630573248</v>
       </c>
       <c r="C94">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D94">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4351,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>95</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4359,13 +4308,13 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1948051948051948</v>
+        <v>0.2230769230769231</v>
       </c>
       <c r="C95">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D95">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -4377,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>124</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4385,13 +4334,13 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.1912568306010929</v>
+        <v>0.2185792349726776</v>
       </c>
       <c r="C96">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D96">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -4403,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4411,25 +4360,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1906077348066298</v>
+        <v>0.2183908045977012</v>
       </c>
       <c r="C97">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="D97">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="E97">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F97">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>293</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4437,13 +4386,13 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1904761904761905</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="C98">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D98">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -4455,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4463,25 +4412,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.1862348178137652</v>
+        <v>0.2146596858638743</v>
       </c>
       <c r="C99">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D99">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E99">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>201</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4489,25 +4438,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.1846153846153846</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C100">
         <v>24</v>
       </c>
       <c r="D100">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4515,25 +4464,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1804511278195489</v>
+        <v>0.1979166666666667</v>
       </c>
       <c r="C101">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D101">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E101">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>218</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4541,25 +4490,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1743119266055046</v>
+        <v>0.1968503937007874</v>
       </c>
       <c r="C102">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D102">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4567,25 +4516,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.1666666666666667</v>
+        <v>0.1862745098039216</v>
       </c>
       <c r="C103">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D103">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E103">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>155</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4593,25 +4542,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.1657142857142857</v>
+        <v>0.1856060606060606</v>
       </c>
       <c r="C104">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D104">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>146</v>
+        <v>215</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4619,13 +4568,13 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.1637426900584795</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="C105">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D105">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4637,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>143</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4645,13 +4594,13 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.1532846715328467</v>
+        <v>0.1755725190839695</v>
       </c>
       <c r="C106">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D106">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4663,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4671,25 +4620,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.1526717557251908</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="C107">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D107">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>111</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4697,25 +4646,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.1492537313432836</v>
+        <v>0.17</v>
       </c>
       <c r="C108">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="D108">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="E108">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="F108">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>513</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4723,13 +4672,13 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.1470588235294118</v>
+        <v>0.1651376146788991</v>
       </c>
       <c r="C109">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D109">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -4741,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4749,25 +4698,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.1397849462365591</v>
+        <v>0.1623376623376623</v>
       </c>
       <c r="C110">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D110">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E110">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>240</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4775,25 +4724,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.1396011396011396</v>
+        <v>0.1595744680851064</v>
       </c>
       <c r="C111">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D111">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E111">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>302</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4801,25 +4750,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.1304347826086956</v>
+        <v>0.1548387096774194</v>
       </c>
       <c r="C112">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D112">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E112">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F112">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>100</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4827,25 +4776,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.1301587301587302</v>
+        <v>0.1542857142857143</v>
       </c>
       <c r="C113">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D113">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E113">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>274</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4853,25 +4802,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.1300813008130081</v>
+        <v>0.1534246575342466</v>
       </c>
       <c r="C114">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D114">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E114">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>107</v>
+        <v>309</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4879,25 +4828,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.1216216216216216</v>
+        <v>0.1412429378531073</v>
       </c>
       <c r="C115">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D115">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>130</v>
+        <v>304</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4905,25 +4854,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.1165919282511211</v>
+        <v>0.1366459627329193</v>
       </c>
       <c r="C116">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D116">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E116">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>394</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4931,25 +4880,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.1126760563380282</v>
+        <v>0.1336898395721925</v>
       </c>
       <c r="C117">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D117">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E117">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F117">
-        <v>0.86</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>378</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4957,25 +4906,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.1055900621118012</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="C118">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D118">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4983,25 +4932,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.1025641025641026</v>
+        <v>0.1283783783783784</v>
       </c>
       <c r="C119">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D119">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E119">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>175</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5009,25 +4958,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.1019108280254777</v>
+        <v>0.1240875912408759</v>
       </c>
       <c r="C120">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D120">
         <v>17</v>
       </c>
       <c r="E120">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5035,25 +4984,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.09067688378033206</v>
+        <v>0.1236559139784946</v>
       </c>
       <c r="C121">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D121">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="E121">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>712</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5061,25 +5010,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.08878504672897196</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="C122">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D122">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E122">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>195</v>
+        <v>109</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5087,25 +5036,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.08490566037735849</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="C123">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D123">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E123">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="F123">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>388</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5113,25 +5062,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.08461538461538462</v>
+        <v>0.1173553719008264</v>
       </c>
       <c r="C124">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D124">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E124">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="F124">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>595</v>
+        <v>534</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5139,25 +5088,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.07296137339055794</v>
+        <v>0.1171171171171171</v>
       </c>
       <c r="C125">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D125">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>216</v>
+        <v>392</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5165,25 +5114,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.06986027944111776</v>
+        <v>0.1128205128205128</v>
       </c>
       <c r="C126">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D126">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E126">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="F126">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>466</v>
+        <v>173</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5191,25 +5140,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.06864988558352403</v>
+        <v>0.1115107913669065</v>
       </c>
       <c r="C127">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D127">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E127">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="F127">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>407</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5217,25 +5166,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.0664451827242525</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C128">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D128">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5243,25 +5192,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.05714285714285714</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C129">
+        <v>18</v>
+      </c>
+      <c r="D129">
         <v>20</v>
       </c>
-      <c r="D129">
-        <v>21</v>
-      </c>
       <c r="E129">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F129">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>330</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5269,25 +5218,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.04935622317596566</v>
+        <v>0.1011764705882353</v>
       </c>
       <c r="C130">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D130">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E130">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="F130">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>443</v>
+        <v>382</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5295,25 +5244,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.04155844155844156</v>
+        <v>0.1004672897196262</v>
       </c>
       <c r="C131">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D131">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E131">
-        <v>0.41</v>
+        <v>0.12</v>
       </c>
       <c r="F131">
-        <v>0.5900000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>369</v>
+        <v>385</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5321,25 +5270,285 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.04111600587371513</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C132">
+        <v>63</v>
+      </c>
+      <c r="D132">
+        <v>67</v>
+      </c>
+      <c r="E132">
+        <v>0.06</v>
+      </c>
+      <c r="F132">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B133">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="C133">
+        <v>21</v>
+      </c>
+      <c r="D133">
+        <v>23</v>
+      </c>
+      <c r="E133">
+        <v>0.09</v>
+      </c>
+      <c r="F133">
+        <v>0.91</v>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B134">
+        <v>0.08634538152610442</v>
+      </c>
+      <c r="C134">
+        <v>43</v>
+      </c>
+      <c r="D134">
+        <v>49</v>
+      </c>
+      <c r="E134">
+        <v>0.12</v>
+      </c>
+      <c r="F134">
+        <v>0.88</v>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B135">
+        <v>0.0793854033290653</v>
+      </c>
+      <c r="C135">
+        <v>62</v>
+      </c>
+      <c r="D135">
+        <v>75</v>
+      </c>
+      <c r="E135">
+        <v>0.17</v>
+      </c>
+      <c r="F135">
+        <v>0.83</v>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="C136">
+        <v>25</v>
+      </c>
+      <c r="D136">
+        <v>26</v>
+      </c>
+      <c r="E136">
+        <v>0.04</v>
+      </c>
+      <c r="F136">
+        <v>0.96</v>
+      </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137">
+        <v>0.06884057971014493</v>
+      </c>
+      <c r="C137">
+        <v>19</v>
+      </c>
+      <c r="D137">
+        <v>31</v>
+      </c>
+      <c r="E137">
+        <v>0.39</v>
+      </c>
+      <c r="F137">
+        <v>0.61</v>
+      </c>
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B138">
+        <v>0.06363636363636363</v>
+      </c>
+      <c r="C138">
         <v>28</v>
       </c>
-      <c r="D132">
-        <v>39</v>
-      </c>
-      <c r="E132">
-        <v>0.28</v>
-      </c>
-      <c r="F132">
-        <v>0.72</v>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132">
-        <v>653</v>
+      <c r="D138">
+        <v>35</v>
+      </c>
+      <c r="E138">
+        <v>0.2</v>
+      </c>
+      <c r="F138">
+        <v>0.8</v>
+      </c>
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B139">
+        <v>0.06333333333333334</v>
+      </c>
+      <c r="C139">
+        <v>19</v>
+      </c>
+      <c r="D139">
+        <v>20</v>
+      </c>
+      <c r="E139">
+        <v>0.05</v>
+      </c>
+      <c r="F139">
+        <v>0.95</v>
+      </c>
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B140">
+        <v>0.04751619870410367</v>
+      </c>
+      <c r="C140">
+        <v>22</v>
+      </c>
+      <c r="D140">
+        <v>28</v>
+      </c>
+      <c r="E140">
+        <v>0.21</v>
+      </c>
+      <c r="F140">
+        <v>0.79</v>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B141">
+        <v>0.04699738903394256</v>
+      </c>
+      <c r="C141">
+        <v>18</v>
+      </c>
+      <c r="D141">
+        <v>31</v>
+      </c>
+      <c r="E141">
+        <v>0.42</v>
+      </c>
+      <c r="F141">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B142">
+        <v>0.02346041055718475</v>
+      </c>
+      <c r="C142">
+        <v>16</v>
+      </c>
+      <c r="D142">
+        <v>26</v>
+      </c>
+      <c r="E142">
+        <v>0.38</v>
+      </c>
+      <c r="F142">
+        <v>0.62</v>
+      </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>666</v>
       </c>
     </row>
   </sheetData>
